--- a/データベースの設定/データベースの設定.xlsx
+++ b/データベースの設定/データベースの設定.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\データベースの設定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859C9639-5678-4651-8B00-24411EBE544D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A57DE8-403C-447E-A8AD-B0E79FDA07C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,10 +157,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F2928F3-9979-4AE5-9939-B29B43DCAA60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5CD6A3D-14E2-45BB-8248-6AFCCE52809D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -177,6 +177,50 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="10943167"/>
+          <a:ext cx="18285714" cy="9714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>569214</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>168119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97BB0971-F439-416A-9AFF-016ED7C4EEED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="20955000"/>
           <a:ext cx="18285714" cy="9714286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -454,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:A47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AC38" sqref="AC38"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
